--- a/7 Visualizations/Visualizations - 4. Pie and Donut Charts.xlsx
+++ b/7 Visualizations/Visualizations - 4. Pie and Donut Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\8. Visualizations\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smcgb\excel-for-data-analysis\7 Visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689A6456-3775-4800-8995-ED5CA70B5A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5922650-3B41-48CC-AA08-AD21CAEA5D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pie Chart" sheetId="4" r:id="rId1"/>
@@ -175,6 +175,2604 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expenses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pie Chart'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Employee Salaries</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Equipment Lease</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Maintenance</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Miscellaneous</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pie Chart'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81CD-4010-826F-D5085AEA28D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Donut Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount US Employees</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Donut Chart'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Employee Salaries</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Equipment Lease</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Insurance</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Maintenance</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Miscellaneous</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Donut Chart'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-061F-462A-B6C5-AF8D5DE45242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Donut Chart'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Amount non-US Employees</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="5"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="6"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="7"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="8"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="9"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="10"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="11"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="35000"/>
+                            <a:lumOff val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:round/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Donut Chart'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>Employee Salaries</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Office</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Equipment Lease</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Marketing</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Travel</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>IT</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Legal</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Utilities</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Insurance</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Maintenance</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Miscellaneous</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Supplies</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Donut Chart'!$C$2:$C$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>230000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>210000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>65000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-061F-462A-B6C5-AF8D5DE45242}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>287547</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>60504</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185468</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30EDA01-6891-4FE5-0909-8685A79F822B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>237554</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>159891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31978</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164459</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DED29B-3142-640E-709A-7D8FAA64B15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -440,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19696873-7A41-4630-9D04-3CEA2E32A176}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -608,6 +3206,7 @@
     <sortCondition descending="1" ref="B3:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -615,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DA6AFD-6991-4747-AAC7-61800722F869}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -777,5 +3376,6 @@
     <sortCondition descending="1" ref="B5:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>